--- a/image/immunizationrecommendation.xlsx
+++ b/image/immunizationrecommendation.xlsx
@@ -909,45 +909,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="73.484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="74.68359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="56.64453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="57.10546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="123.7734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="69.66015625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="71.30078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="124.12890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="68.82421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="72.6953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="146.046875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="112.65234375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="145.34375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="113.2109375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/immunizationrecommendation.xlsx
+++ b/image/immunizationrecommendation.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="242">
   <si>
     <t>Path</t>
   </si>
@@ -171,7 +171,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -453,10 +453,6 @@
   </si>
   <si>
     <t>ImmunizationRecommendation.recommendation.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -909,45 +905,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="74.68359375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="73.484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="57.10546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="56.64453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="124.12890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="68.82421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="72.6953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="123.7734375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="69.66015625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="71.30078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="145.34375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="113.2109375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="146.046875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="112.65234375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="33.046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2638,13 +2634,13 @@
         <v>40</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2695,7 +2691,7 @@
         <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -2716,7 +2712,7 @@
         <v>40</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>40</v>
@@ -2724,7 +2720,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2753,7 +2749,7 @@
         <v>96</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M17" t="s" s="2">
         <v>98</v>
@@ -2806,7 +2802,7 @@
         <v>40</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -2827,7 +2823,7 @@
         <v>40</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>40</v>
@@ -2835,11 +2831,11 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -2861,10 +2857,10 @@
         <v>95</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="M18" t="s" s="2">
         <v>98</v>
@@ -2919,7 +2915,7 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -2948,7 +2944,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2971,13 +2967,13 @@
         <v>51</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3004,14 +3000,14 @@
         <v>40</v>
       </c>
       <c r="W19" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="X19" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="X19" t="s" s="2">
+      <c r="Y19" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="Y19" t="s" s="2">
-        <v>160</v>
-      </c>
       <c r="Z19" t="s" s="2">
         <v>40</v>
       </c>
@@ -3028,7 +3024,7 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -3043,13 +3039,13 @@
         <v>40</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AL19" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>40</v>
@@ -3057,7 +3053,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3080,16 +3076,16 @@
         <v>51</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3115,14 +3111,14 @@
         <v>40</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="X20" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="Y20" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="Y20" t="s" s="2">
-        <v>169</v>
-      </c>
       <c r="Z20" t="s" s="2">
         <v>40</v>
       </c>
@@ -3139,7 +3135,7 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3157,10 +3153,10 @@
         <v>40</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>40</v>
@@ -3168,7 +3164,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3191,13 +3187,13 @@
         <v>51</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3224,14 +3220,14 @@
         <v>40</v>
       </c>
       <c r="W21" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="X21" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="X21" t="s" s="2">
+      <c r="Y21" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="Y21" t="s" s="2">
-        <v>160</v>
-      </c>
       <c r="Z21" t="s" s="2">
         <v>40</v>
       </c>
@@ -3248,7 +3244,7 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3277,7 +3273,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3300,13 +3296,13 @@
         <v>51</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3333,14 +3329,14 @@
         <v>40</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="X22" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="Y22" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="Y22" t="s" s="2">
-        <v>177</v>
-      </c>
       <c r="Z22" t="s" s="2">
         <v>40</v>
       </c>
@@ -3357,7 +3353,7 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>50</v>
@@ -3375,10 +3371,10 @@
         <v>40</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>40</v>
@@ -3386,7 +3382,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3409,13 +3405,13 @@
         <v>51</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3442,14 +3438,14 @@
         <v>40</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="X23" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="Y23" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="Y23" t="s" s="2">
-        <v>184</v>
-      </c>
       <c r="Z23" t="s" s="2">
         <v>40</v>
       </c>
@@ -3466,7 +3462,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -3484,7 +3480,7 @@
         <v>40</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>92</v>
@@ -3495,7 +3491,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3521,10 +3517,10 @@
         <v>134</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3575,7 +3571,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -3587,16 +3583,16 @@
         <v>40</v>
       </c>
       <c r="AI24" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AJ24" t="s" s="2">
+      <c r="AK24" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="AK24" t="s" s="2">
+      <c r="AL24" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>40</v>
@@ -3604,7 +3600,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3627,13 +3623,13 @@
         <v>40</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3684,7 +3680,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -3705,7 +3701,7 @@
         <v>40</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>40</v>
@@ -3713,7 +3709,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3742,7 +3738,7 @@
         <v>96</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M26" t="s" s="2">
         <v>98</v>
@@ -3795,7 +3791,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -3816,7 +3812,7 @@
         <v>40</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>40</v>
@@ -3824,11 +3820,11 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -3850,10 +3846,10 @@
         <v>95</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>98</v>
@@ -3908,7 +3904,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -3937,7 +3933,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3960,13 +3956,13 @@
         <v>40</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3993,14 +3989,14 @@
         <v>40</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="X28" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="Y28" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="Y28" t="s" s="2">
-        <v>200</v>
-      </c>
       <c r="Z28" t="s" s="2">
         <v>40</v>
       </c>
@@ -4017,7 +4013,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>50</v>
@@ -4035,10 +4031,10 @@
         <v>40</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>40</v>
@@ -4046,7 +4042,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4072,10 +4068,10 @@
         <v>121</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4126,7 +4122,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>50</v>
@@ -4144,10 +4140,10 @@
         <v>40</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>40</v>
@@ -4155,7 +4151,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4178,13 +4174,13 @@
         <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>141</v>
+        <v>52</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4235,7 +4231,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4253,10 +4249,10 @@
         <v>40</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>40</v>
@@ -4264,7 +4260,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4287,13 +4283,13 @@
         <v>40</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>141</v>
+        <v>52</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4344,7 +4340,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4362,10 +4358,10 @@
         <v>40</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>40</v>
@@ -4373,7 +4369,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4396,16 +4392,16 @@
         <v>51</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -4455,7 +4451,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4473,10 +4469,10 @@
         <v>40</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>40</v>
@@ -4484,7 +4480,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4507,16 +4503,16 @@
         <v>40</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L33" t="s" s="2">
-        <v>227</v>
-      </c>
       <c r="M33" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -4566,7 +4562,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -4584,10 +4580,10 @@
         <v>40</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>40</v>
@@ -4595,7 +4591,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4618,13 +4614,13 @@
         <v>40</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4675,7 +4671,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -4693,10 +4689,10 @@
         <v>40</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>40</v>
@@ -4704,7 +4700,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4727,13 +4723,13 @@
         <v>40</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4784,7 +4780,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -4799,13 +4795,13 @@
         <v>40</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="AK35" t="s" s="2">
+      <c r="AL35" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>40</v>
